--- a/pred_ohlcv/54_21/2020-01-16 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BTC ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>-522.80484337</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-533.2250242700003</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-527.4802024900002</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-550.5016932500004</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-551.5414932500004</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-552.6316932500004</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-554.5760932500003</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-561.3786932500003</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-558.4466010100003</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-558.3212010100003</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-551.9744361500003</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-551.4323362000003</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-549.1136361500004</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-554.2595361500004</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-562.0274361500004</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-559.0994361500004</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-554.4455361500004</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-555.6240361500004</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-553.2362361500004</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-554.0542361500004</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-551.3650889200004</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-552.3472889200004</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-552.0578889200004</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-548.3738889200005</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-546.5679889200005</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-545.3876889200005</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-547.2715889200006</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-546.0822889200006</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-545.7867889200006</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-545.2866889200006</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-545.3238889200006</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-544.4886889200006</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-547.7823797200007</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-551.5067797200006</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-549.7301797200006</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-551.0115796700006</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-557.7066695300007</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-556.2909694800006</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-555.1913694800006</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-549.0598694800007</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-550.7462694800007</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-550.6333694800007</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-552.0514694800007</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-552.4667694800007</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-546.3710694800008</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-555.0111318800008</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-554.6502318800008</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-555.2250318800008</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-556.4605318800008</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-551.9101318800008</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-551.7274318800008</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-552.1055318800009</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-549.1041318300008</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-544.0073318300008</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-544.0073318300008</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-544.8829318300008</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-543.1762192000008</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-543.2168192000008</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-543.2168192000008</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-551.5702192000008</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-559.1180192000008</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-554.7446192000009</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-557.1192192000009</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-557.3399192000008</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-555.3701651900009</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-552.0816651900009</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-555.7422359000009</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-560.1854773000009</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-559.899977300001</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-559.864977300001</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-561.4412773000009</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-564.379477300001</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-559.4273103000012</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-559.2109103000012</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-554.9933103000012</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-553.7247103000012</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-554.4371103000012</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-551.7635102600012</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-552.7362102600013</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-556.1115102600013</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-557.5124102600013</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-556.6188672600013</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-554.1149856500012</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-553.6063856500012</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-541.4434856500012</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-539.1690800000013</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-540.6498764900012</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-540.3889764900013</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-538.1447764900013</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-524.6374503900013</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-523.2612231200013</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-523.2612231200013</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-518.3050727500013</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-517.5480727500013</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-517.5480727500013</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-511.6015919000013</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-510.2709910300013</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-510.2709910300013</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-508.1891414400013</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-503.0809910300013</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-503.0809910300013</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-503.0809910300013</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-454.2506692900013</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-455.3613215700013</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-455.3613215700013</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-455.6585215700013</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-431.8409831300008</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-473.4106831300008</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-493.9496696400008</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-524.6115752700008</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-514.1117752700007</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-493.3030964500007</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-483.3243850800008</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-477.1905859100008</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-375.2200860000007</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-291.6833633000007</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-305.8336037800007</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-288.1254133900007</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-282.4556039500008</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-289.9669039500008</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-306.2352260500007</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-319.9012260500007</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-291.7313588700007</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-281.5116797100007</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-263.8635455900007</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-263.8635455900007</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-257.4982568100007</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-268.7921670200007</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-279.4001586100007</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-305.9447916300007</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-342.7271953300007</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-356.9446830200006</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-350.1646830200007</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-341.8887878100007</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-322.8567046200007</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-322.8567046200007</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-329.3923066500007</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-329.3923066500007</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-337.4828704300007</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-326.5727703900008</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-341.6476139300008</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-334.1614092300008</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-326.8536048100008</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-345.9335048100008</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-352.9621048100008</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-369.2556776600007</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-403.3323776600008</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-467.5118108600007</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-470.5591108800007</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-470.5591108800007</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-467.5142124300007</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-467.5142124300007</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-467.5142124300007</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-463.6965124300007</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-466.1205124300007</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-463.1308087300007</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-569.3581445500012</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-575.1341849100011</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-565.0055849100011</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-567.1223849100011</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-567.1223849100011</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-565.246525270001</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-564.5747252700011</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-565.2823214400011</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-555.227717610001</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-538.714640940001</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-544.231440940001</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-539.197340940001</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-541.545240940001</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-540.876740940001</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-536.095482070001</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-539.137325800001</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-535.205148850001</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-542.563948850001</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-536.435731330001</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-537.496931330001</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-537.9734313300009</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-537.0439094500009</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-536.6130313300009</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-542.0499422100009</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-541.644431620001</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-564.3332209600011</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BTC ohlcv.xlsx
@@ -5670,7 +5670,7 @@
         <v>-552.6316932500004</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-554.5760932500003</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-561.3786932500003</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-558.4466010100003</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-558.3212010100003</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-551.9744361500003</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-551.4323362000003</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-549.1136361500004</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-554.2595361500004</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-562.0274361500004</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-559.0994361500004</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-554.4455361500004</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-555.6240361500004</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-553.2362361500004</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-554.0542361500004</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-551.3650889200004</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-552.3472889200004</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-552.0578889200004</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-548.3738889200005</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-546.5679889200005</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-545.3876889200005</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-547.2715889200006</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-546.0822889200006</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-545.7867889200006</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-545.2866889200006</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-545.3238889200006</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-544.4886889200006</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-547.7823797200007</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-551.5067797200006</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-549.7301797200006</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-551.0115796700006</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-557.7066695300007</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-556.2909694800006</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-555.1913694800006</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-549.0598694800007</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-550.7462694800007</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-550.6333694800007</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-552.0514694800007</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-552.4667694800007</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-546.3710694800008</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-555.0111318800008</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-554.6502318800008</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-555.2250318800008</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-556.4605318800008</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-551.9101318800008</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-551.7274318800008</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-552.1055318800009</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-549.1041318300008</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-544.0073318300008</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-544.0073318300008</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-544.8829318300008</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-543.1762192000008</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-543.2168192000008</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-543.2168192000008</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-551.5702192000008</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-559.1180192000008</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-554.7446192000009</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-557.1192192000009</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-557.3399192000008</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-555.3701651900009</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-552.0816651900009</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-555.7422359000009</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-560.1854773000009</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-559.899977300001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-559.864977300001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-561.4412773000009</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-564.379477300001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-559.4273103000012</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-559.2109103000012</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-554.9933103000012</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-553.7247103000012</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-554.4371103000012</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-551.7635102600012</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-552.7362102600013</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-556.1115102600013</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-557.5124102600013</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-556.6188672600013</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-554.1149856500012</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-553.6063856500012</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-541.4434856500012</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-539.1690800000013</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-540.6498764900012</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-540.3889764900013</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-538.1447764900013</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-538.1447764900013</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-531.9566877700013</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-529.6846877700012</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-526.2853136300013</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-524.8268503900013</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-524.8618503900012</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-524.6374503900013</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-524.6374503900013</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-523.2612231200013</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-523.2612231200013</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-518.3050727500013</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-517.5480727500013</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-517.5480727500013</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-511.6015919000013</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-510.2709910300013</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-510.2709910300013</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-508.1891414400013</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-503.0809910300013</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-503.0809910300013</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-503.0809910300013</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-454.2506692900013</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-455.3613215700013</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-455.3613215700013</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-455.6585215700013</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-431.8409831300008</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-473.4106831300008</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-493.9496696400008</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-524.6115752700008</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-514.1117752700007</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-493.3030964500007</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-483.3243850800008</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-477.1905859100008</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-291.6833633000007</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-305.8336037800007</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-288.1254133900007</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-282.4556039500008</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-289.9669039500008</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-306.2352260500007</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-319.9012260500007</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-291.7313588700007</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-281.5116797100007</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-263.8635455900007</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-263.8635455900007</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-257.4982568100007</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-268.7921670200007</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-279.4001586100007</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-305.9447916300007</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-342.7271953300007</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-356.9446830200006</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-322.8567046200007</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-322.8567046200007</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-329.3923066500007</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-337.4828704300007</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-467.5118108600007</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-470.5591108800007</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-470.5591108800007</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-467.5142124300007</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-467.5142124300007</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-467.5142124300007</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-463.6965124300007</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-466.1205124300007</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-463.1308087300007</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-569.3581445500012</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-575.1341849100011</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-565.0055849100011</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-567.1223849100011</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-567.1223849100011</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-565.246525270001</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-564.5747252700011</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-565.2823214400011</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-555.227717610001</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-538.714640940001</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-544.231440940001</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-539.197340940001</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-541.545240940001</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-540.876740940001</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-536.095482070001</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-539.137325800001</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-535.205148850001</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-542.563948850001</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-536.435731330001</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-537.496931330001</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-537.9734313300009</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-537.0439094500009</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-536.6130313300009</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-542.0499422100009</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-541.644431620001</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-554.0796238700011</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-554.3499452700011</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-555.5822452700011</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-552.298938710001</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-552.2527488500011</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-555.6635938500011</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-555.3423938500011</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-553.3531931400012</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-549.7150938500012</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-555.2921487500012</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-554.7058487500011</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-560.2462852000011</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-558.0626852000012</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-560.6682851600011</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-563.7547699800011</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-565.0366699800011</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-564.6263699800011</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-566.4413699800011</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-566.4413699800011</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-566.4413699800011</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-566.1867214500011</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-566.1867214500011</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-574.2225368300011</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-569.8584620600011</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-573.0127620600011</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-565.6370620600011</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-565.9101210900011</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-561.8882210900011</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-561.7928983100012</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-561.7928983100012</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-560.6387468600012</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-555.8063728400012</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-553.6881728400012</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-551.8294935800012</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-552.9245039400012</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-552.9245039400012</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-551.5625981200012</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-549.6949981200012</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-552.9534981200012</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-556.0989923000012</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-557.4463344500012</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-556.8047344500012</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-557.9093344500012</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-557.9093344500012</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-557.3188344500012</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-557.8718344500012</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-557.8718344500012</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-557.4094241200012</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-557.4094241200012</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-558.6470316700012</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-558.0818316700012</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-558.0818316700012</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-557.8343093300011</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-555.8501093300011</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-555.8501093300011</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-556.6658093300011</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-556.6066812600011</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-557.1733812600011</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-564.2132812600011</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-561.751399720001</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-560.8594997200011</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-561.0851100800011</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-560.0661100800011</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-562.2092100800011</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-562.2092100800011</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-562.2092100800011</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-562.2092100800011</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-564.0034100800011</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-565.2068209600011</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-568.7642209600011</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-565.9041209600011</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-571.0971209600011</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-571.9508209600011</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-571.9508209600011</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-571.9508209600011</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-571.9508209600011</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-563.2280209600011</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-561.1414209600011</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-564.3332209600011</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-564.3332209600011</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-561.7850101600011</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-561.8963101600011</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-559.7738101600012</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-564.9224779900012</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-564.4453779900012</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-562.4039458200012</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-561.5689465400012</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-560.6286465400012</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-559.9959458200012</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-559.0257458200012</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-560.0329458200013</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-557.7498652000013</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-557.7498652000013</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-562.6234458200013</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-562.0540744500013</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-557.6771107500012</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-557.9053107500013</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-562.4537145300012</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-562.4537145300012</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-562.4537145300012</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-559.1780041400012</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-558.8406041400012</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-557.8916203900012</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-555.8273203900012</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-550.1258203900012</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-540.8032203900012</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-540.8032203900012</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-544.2465304300013</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-543.9233304300012</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-539.5200304300013</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-541.3917304300013</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-541.3917304300013</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-538.7001403700013</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-540.0079646700013</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-548.9932867800013</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-548.9932867800013</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-547.4116867800013</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-546.5554867800014</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-546.5554867800014</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-546.0094867800013</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-545.5300867800013</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-548.1648938400012</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-547.8185938400012</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-545.0776805800012</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-545.0776805800012</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-546.1881954500012</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-547.6693954500012</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-549.0237492500012</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-550.5585492500012</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-548.8021171000012</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-547.8073005900012</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-547.5653731500012</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-551.5849868900011</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-550.4539668400012</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-554.0150668400012</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-549.5703573500011</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-547.1916573500012</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-540.2249573500012</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-541.7522573500012</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-536.1200573500012</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-535.5756637000012</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-533.1809461300012</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-531.7622461300012</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
